--- a/src/test/java/testdocumentation/OrangeHRM.xlsx
+++ b/src/test/java/testdocumentation/OrangeHRM.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassenehadjour/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassenehadjour/Desktop/web-automation-framework-team-6/src/test/java/testdocumentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29143787-ADF3-8041-87C1-D9EBD49E80FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4651CB-D66C-3B48-9261-C59CEECE7374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{3DE73D70-11F4-E04F-B260-12334882B35D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FinalSeleniumBootcamp" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,22 +39,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>selenium</t>
+  </si>
+  <si>
+    <t>TestScenario</t>
+  </si>
+  <si>
+    <t>TestSteps</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>TC_OH_001</t>
+  </si>
+  <si>
+    <t>TC_OH_002</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>Type UserName</t>
+  </si>
+  <si>
+    <t>Type Password</t>
+  </si>
+  <si>
+    <t>Click Login Button</t>
+  </si>
+  <si>
+    <t>Click On Forgot Password Link</t>
+  </si>
+  <si>
+    <t>Click On Reset Password Button</t>
+  </si>
+  <si>
+    <t>User name typed</t>
+  </si>
+  <si>
+    <t>Password typed</t>
+  </si>
+  <si>
+    <t>Login to Orange HRM demo Website</t>
+  </si>
+  <si>
+    <t>Pup Up message to type UserName</t>
+  </si>
+  <si>
+    <t>Reset Password Link sent to email</t>
+  </si>
+  <si>
+    <t>"Reset Password link sent successfully"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,9 +125,70 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -74,8 +198,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCB6083-834C-C74C-9C02-EE76B8ACC3D4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -404,4 +554,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A00966-4455-0C47-9081-DAD4168DF904}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A41F06-69AF-954A-9966-A89ACEA8FA3E}">
+  <dimension ref="B5:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6AEE5D-AB26-904B-87C9-75A28712E29E}">
+  <dimension ref="B5:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E4:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="7" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>